--- a/biology/Zoologie/Richard_J._Aldridge/Richard_J._Aldridge.xlsx
+++ b/biology/Zoologie/Richard_J._Aldridge/Richard_J._Aldridge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard John Aldridge (né le 16 décembre 1945, décédé le 4 février 2014) est un paléontologue britannique.
 Il participe dans les années 1980 et 190 à la clarification de la position cladistique des conodontes, qui étaient jusque là inconnue. À cette époque, des conodontes ont été trouvés dans un Lagerstätte à Granton, près d'Édimbourg en Écosse, dans une strate du Carbonifère, associés à des tissus fossilisés. Les fossiles présentaient un appareil complet des pièces de conodontes au niveau de ce qui serait leur tête. 
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Briggs D.E.G., Clarkson E.N.K. &amp; Aldridge R.J., 1983. The conodont animal. Lethaia, Volume 16, Issue 1 (January 1983), Pages 1-14, DOI 10.1111/j.1502-3931.1983.tb01993.x.
 (en) Aldridge R.J., Smith M.P., Norby R.D., 1987. The architecture and function of Carboniferous polygnathacean conodont apparatuses. Palaeobiology of …, Halsted Press.
@@ -546,7 +560,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard J. Aldridge reçoit la médaille de Pander, décernée par la Pander Society en 2006.
 </t>
